--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -20,18 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
-  <si>
-    <t xml:space="preserve">ООО «ЭТЗ»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Г. Калуга</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+  <si>
+    <t xml:space="preserve">ООО "РН-Комсомольский НПЗ"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Г. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Комсомольск-на-Амуре</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Испытательное оборудование</t>
   </si>
   <si>
-    <t xml:space="preserve">КСПТ зав.№18112060</t>
+    <t xml:space="preserve">КСПТ зав.№19022061</t>
   </si>
   <si>
     <t xml:space="preserve">ООО «Авиагрегат-Н»</t>
@@ -64,10 +81,82 @@
     <t xml:space="preserve">$DATE$</t>
   </si>
   <si>
+    <t xml:space="preserve">Измерение сопротивления обмотки изоляции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обмотка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15/R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВН и корпус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$201$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$202$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$203$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$204$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$205$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НН и корпус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$206$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$207$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$208$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$209$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$210$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH и НН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$211$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$212$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$213$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$214$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$215$</t>
+  </si>
+  <si>
     <t xml:space="preserve">Измерение сопротивления обмоток постоянному току (3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обмотка</t>
   </si>
   <si>
     <t xml:space="preserve">AB, Ом</t>
@@ -116,9 +205,6 @@
     <t xml:space="preserve">t, °C </t>
   </si>
   <si>
-    <t xml:space="preserve">Результат</t>
-  </si>
-  <si>
     <t xml:space="preserve">$1$</t>
   </si>
   <si>
@@ -393,9 +479,6 @@
   </si>
   <si>
     <t xml:space="preserve">Тип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U, B</t>
   </si>
   <si>
     <t xml:space="preserve">I, мА</t>
@@ -664,9 +747,6 @@
     <t xml:space="preserve">$109$</t>
   </si>
   <si>
-    <t xml:space="preserve">Заключение:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рекомендации:</t>
   </si>
   <si>
@@ -692,7 +772,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -738,6 +818,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -775,17 +861,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -865,7 +951,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,11 +964,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,18 +996,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,67 +1016,67 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,10 +1109,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1034,7 +1124,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1157,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1077,7 +1167,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="2"/>
@@ -1106,7 +1196,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="2"/>
@@ -1135,7 +1225,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="2"/>
@@ -1153,22 +1243,22 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1184,18 +1274,18 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1211,22 +1301,22 @@
       <c r="Y6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1242,22 +1332,22 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1288,22 +1378,22 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1319,18 +1409,18 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1346,20 +1436,24 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="15" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1372,29 +1466,29 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1411,29 +1505,29 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="17" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1450,27 +1544,29 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="20" t="s">
         <v>32</v>
       </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1486,18 +1582,30 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1513,20 +1621,22 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1538,30 +1648,20 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="E18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1573,38 +1673,34 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="H19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1616,44 +1712,34 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="H20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="I20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="J20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1665,22 +1751,32 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1692,368 +1788,358 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="22" t="s">
+      <c r="E23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="M24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="A25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="15" t="s">
+      <c r="A26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="H29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="D31" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="22" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E32" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="D32" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2068,45 +2154,20 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="E36" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2118,19 +2179,35 @@
       <c r="Y36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="2"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="D37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -2145,20 +2222,38 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="15" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="D38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="H38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2170,26 +2265,19 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="13"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -2204,28 +2292,20 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="24" t="s">
+      <c r="E40" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2237,19 +2317,42 @@
       <c r="Y40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="2"/>
+      <c r="A41" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -2264,20 +2367,45 @@
       <c r="Y41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E42" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="A42" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2289,24 +2417,19 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="E43" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -2321,27 +2444,20 @@
       <c r="Y43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="E44" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="E44" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2353,24 +2469,26 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="E45" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>124</v>
-      </c>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="14"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -2384,85 +2502,174 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+    </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G47" s="28" t="s">
-        <v>125</v>
-      </c>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="27" t="s">
+      <c r="E48" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="E49" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="24" t="s">
+      <c r="I49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="E50" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="F50" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="G50" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="H50" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="I50" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="E51" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="2"/>
+      <c r="F51" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -2476,183 +2683,85 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G54" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C55" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C56" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -2667,19 +2776,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -2694,27 +2791,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="L60" s="29" t="s">
-        <v>13</v>
-      </c>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -2730,26 +2807,18 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="L61" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -2764,10 +2833,217 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="L67" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="L68" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="28">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A7:B7"/>
@@ -2776,27 +3052,25 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M26"/>
     <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:J68"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Испытательное оборудование</t>
   </si>
   <si>
-    <t xml:space="preserve">КСПТ зав.№19022061</t>
+    <t xml:space="preserve">КСПТ зав.№190220061</t>
   </si>
   <si>
     <t xml:space="preserve">ООО «Авиагрегат-Н»</t>

--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -526,9 +526,6 @@
     <t xml:space="preserve">P, КВА</t>
   </si>
   <si>
-    <t xml:space="preserve">Фазы</t>
-  </si>
-  <si>
     <t xml:space="preserve">I хх, %</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t xml:space="preserve">Uпробоя, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U мегер, B</t>
   </si>
   <si>
     <t xml:space="preserve">$101$</t>
@@ -653,35 +653,6 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5$</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">6$</t>
     </r>
   </si>
@@ -745,6 +716,9 @@
   </si>
   <si>
     <t xml:space="preserve">$109$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$110$</t>
   </si>
   <si>
     <t xml:space="preserve">Рекомендации:</t>
@@ -1111,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M52" activeCellId="0" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2690,60 +2664,60 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="E55" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="F55" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="G55" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="H55" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>93</v>
       </c>
       <c r="J55" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K55" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="L55" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="E56" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="F56" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="G56" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="H56" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="I56" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="J56" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="K56" s="19" t="s">
+      <c r="L56" s="19" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -96,7 +96,7 @@
     <t xml:space="preserve">R60</t>
   </si>
   <si>
-    <t xml:space="preserve">R15/R60</t>
+    <t xml:space="preserve">R60/R15</t>
   </si>
   <si>
     <t xml:space="preserve">Результат</t>
@@ -1085,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M52" activeCellId="0" sqref="M52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="165">
   <si>
     <t xml:space="preserve">ООО "РН-Комсомольский НПЗ"</t>
   </si>
@@ -81,452 +81,25 @@
     <t xml:space="preserve">$DATE$</t>
   </si>
   <si>
-    <t xml:space="preserve">Измерение сопротивления обмотки изоляции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обмотка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U, B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R60/R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Результат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВН и корпус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$201$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$202$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$203$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$204$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$205$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НН и корпус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$206$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$207$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$208$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$209$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$210$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH и НН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$211$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$212$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$213$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$214$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$215$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измерение сопротивления обмоток постоянному току (3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB, Ом</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, Ом</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, Ом</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">t, °C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определение коэффициента трансформации(3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U входное, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U выходное, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uвых/Uвх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f, Гц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uср</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$14$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$15$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$16$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$19$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$22$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$23$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка напряжений вторичных обмоток в режиме холостого хода (3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBH, B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHH, B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$24$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$26$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$27$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка группы соединений обмоток (3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$28$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$29$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$31$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$32$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реализация опыта короткого замыкания(3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U КЗ, В</t>
+    <t xml:space="preserve">Объект испытания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U ВН, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U НН, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P, КВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I хх, %</t>
   </si>
   <si>
     <t xml:space="preserve">U КЗ, %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I A, A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I B, A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I C, A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pn, Вт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$33$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$34$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$134$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$35$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$36$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$37$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$38$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$39$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$40$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реализация опыта холостого хода (3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBH, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA- Ixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IB- Ixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC- Ixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$41$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$42$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$43$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$44$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$142$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$143$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$144$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$45$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$46$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$47$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$48$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Опыт проверки межвитковой изоляции(3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U вх, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I BH, A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t, сек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$49$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$50$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$51$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$52$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$53$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Испытание электрической прочности изоляции (3ф)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I, мА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$54$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$55$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$56$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$57$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$58$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$59$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$60$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$61$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$62$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$63$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объект испытания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U ВН, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U НН, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P, КВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I хх, %</t>
   </si>
   <si>
     <t xml:space="preserve">ХХ, с</t>
@@ -719,6 +292,418 @@
   </si>
   <si>
     <t xml:space="preserve">$110$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Измерение сопротивления обмотки изоляции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обмотка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15, Ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60, Ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60/R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВН и корпус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$201$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$202$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$203$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$204$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$205$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НН и корпус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$206$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$207$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$208$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$209$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$210$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH и НН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$211$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$212$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$213$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$214$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$215$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Измерение сопротивления обмоток постоянному току </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB, Ом</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Ом</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Ом</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">t, °C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$5$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$8$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$9$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$11$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение коэффициента трансформации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U входное, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U выходное, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uвых/Uвх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f, Гц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uср</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$13$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$14$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$15$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$16$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$17$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$18$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$19$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$20$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$21$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$22$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$23$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка группы соединений обмоток </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBH, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UHH, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$28$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$29$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$30$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$31$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$32$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация опыта короткого замыкания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U КЗ, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I A, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I B, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I C, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pn, Вт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$33$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$34$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$134$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$35$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$36$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$37$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$38$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$39$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация опыта холостого хода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBH, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IA- Ixx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IB- Ixx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC- Ixx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$41$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$42$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$43$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$44$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$142$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$143$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$144$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$45$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$46$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$47$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$48$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опыт проверки межвитковой изоляции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U вх, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I BH, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t, сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$49$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$50$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$51$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$52$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$53$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Испытание электрической прочности изоляции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I, мА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$54$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$55$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$56$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$57$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$58$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$59$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$61$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$62$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$63$</t>
   </si>
   <si>
     <t xml:space="preserve">Рекомендации:</t>
@@ -812,9 +797,10 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -842,17 +828,16 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="204"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -879,17 +864,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -925,7 +910,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,31 +975,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,11 +1019,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,23 +1031,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,8 +1074,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1410,20 +1399,17 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1439,30 +1425,33 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="17" t="s">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="G13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1478,30 +1467,33 @@
       <c r="Y13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1517,30 +1509,6 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1556,28 +1524,14 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="20" t="s">
+      <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="2"/>
@@ -1595,16 +1549,24 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="2"/>
@@ -1622,20 +1584,30 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="A18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1647,27 +1619,23 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="21" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1686,27 +1654,23 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>49</v>
+      <c r="A20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1725,28 +1689,18 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1762,18 +1716,16 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="A22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1789,16 +1741,26 @@
       <c r="Y22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E23" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="A23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
@@ -1815,29 +1777,27 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="P24" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1849,38 +1809,26 @@
       <c r="Y24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1892,44 +1840,20 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1941,18 +1865,20 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="A27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
@@ -1968,151 +1894,180 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="16" t="s">
+      <c r="A28" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="E29" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>60</v>
+        <v>83</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="E30" s="19" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="A32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="A33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="E33" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="E34" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2128,20 +2083,21 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+      <c r="A36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2153,34 +2109,32 @@
       <c r="Y36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="D37" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2196,34 +2150,32 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="D38" s="19" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2239,18 +2191,18 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2266,20 +2218,24 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E40" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="A40" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2292,40 +2248,40 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="E41" s="18" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="J41" s="18" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2342,40 +2298,40 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2391,18 +2347,18 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2418,20 +2374,20 @@
       <c r="Y43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
+      <c r="A44" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2443,24 +2399,20 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="E45" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J45" s="14"/>
       <c r="N45" s="2"/>
@@ -2477,24 +2429,20 @@
       <c r="Y45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="E46" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2510,18 +2458,14 @@
       <c r="Y46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -2537,20 +2481,20 @@
       <c r="Y47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="A48" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2562,23 +2506,20 @@
       <c r="Y48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="E49" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2594,23 +2535,20 @@
       <c r="Y49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="E50" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2626,23 +2564,20 @@
       <c r="Y50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="E51" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2658,84 +2593,51 @@
       <c r="Y51" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G54" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D55" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D56" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="H56" s="19" t="s">
+      <c r="A56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I56" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -2751,6 +2653,18 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -2766,6 +2680,18 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -2780,19 +2706,27 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="L61" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -2807,21 +2741,27 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -2836,187 +2776,15 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-    </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="L67" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="L68" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="35">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:L5"/>
@@ -3026,29 +2794,36 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="M24:M26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="C56:L56"/>
     <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:J62"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="50" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
   <si>
     <t xml:space="preserve">ООО "РН-Комсомольский НПЗ"</t>
   </si>
@@ -517,16 +517,13 @@
     <t xml:space="preserve">Проверка группы соединений обмоток </t>
   </si>
   <si>
-    <t xml:space="preserve">AB</t>
+    <t xml:space="preserve">BH</t>
   </si>
   <si>
     <t xml:space="preserve">AC</t>
   </si>
   <si>
-    <t xml:space="preserve">UBH, B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHH, B</t>
+    <t xml:space="preserve">HH</t>
   </si>
   <si>
     <t xml:space="preserve">$28$</t>
@@ -535,12 +532,6 @@
     <t xml:space="preserve">$29$</t>
   </si>
   <si>
-    <t xml:space="preserve">$30$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$31$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$32$</t>
   </si>
   <si>
@@ -673,6 +664,9 @@
     <t xml:space="preserve">Испытание электрической прочности изоляции</t>
   </si>
   <si>
+    <t xml:space="preserve">U, В</t>
+  </si>
+  <si>
     <t xml:space="preserve">I, мА</t>
   </si>
   <si>
@@ -689,9 +683,6 @@
   </si>
   <si>
     <t xml:space="preserve">$58$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$59$</t>
   </si>
   <si>
     <t xml:space="preserve">$60$</t>
@@ -731,7 +722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -839,6 +830,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -910,7 +908,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1033,6 +1031,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1074,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2011,7 +2013,6 @@
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -2030,29 +2031,23 @@
       <c r="C33" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2084,7 +2079,7 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2110,25 +2105,25 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="G37" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>79</v>
@@ -2151,31 +2146,31 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="E38" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="F38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="G38" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="H38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="I38" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2219,7 +2214,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2248,34 +2243,34 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="I41" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="J41" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="K41" s="17" t="s">
         <v>79</v>
@@ -2298,40 +2293,40 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="H42" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="J42" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="K42" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="L42" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>137</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2375,7 +2370,7 @@
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -2400,16 +2395,16 @@
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>39</v>
@@ -2430,19 +2425,19 @@
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="E46" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2482,12 +2477,13 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -2513,12 +2509,15 @@
         <v>35</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>39</v>
       </c>
       <c r="N49" s="2"/>
@@ -2536,19 +2535,22 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="F50" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2565,19 +2567,22 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="F51" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2592,52 +2597,55 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="31"/>
+    </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -2653,18 +2661,18 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -2707,24 +2715,24 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="34"/>
+      <c r="A61" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="35"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="L61" s="31" t="s">
+      <c r="K61" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="32" t="s">
         <v>13</v>
       </c>
       <c r="M61" s="2"/>
@@ -2742,24 +2750,24 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="34"/>
+      <c r="A62" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="35"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="L62" s="31" t="s">
+      <c r="K62" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="L62" s="32" t="s">
         <v>13</v>
       </c>
       <c r="M62" s="2"/>
@@ -2804,11 +2812,11 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="C56:L56"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A58:L58"/>

--- a/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
+++ b/src/main/resources/ru/avem/ksptamur/raw/template_phase3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
   <si>
     <t xml:space="preserve">ООО "РН-Комсомольский НПЗ"</t>
   </si>
@@ -90,6 +90,9 @@
     <t xml:space="preserve">U ВН, В</t>
   </si>
   <si>
+    <t xml:space="preserve">U BН, В</t>
+  </si>
+  <si>
     <t xml:space="preserve">U НН, В</t>
   </si>
   <si>
@@ -159,7 +162,7 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">10</t>
+      <t xml:space="preserve">102</t>
     </r>
     <r>
       <rPr>
@@ -168,7 +171,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3$</t>
+      <t xml:space="preserve">$</t>
     </r>
   </si>
   <si>
@@ -197,7 +200,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4$</t>
+      <t xml:space="preserve">3$</t>
     </r>
   </si>
   <si>
@@ -226,7 +229,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6$</t>
+      <t xml:space="preserve">4$</t>
     </r>
   </si>
   <si>
@@ -255,7 +258,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7$</t>
+      <t xml:space="preserve">6$</t>
     </r>
   </si>
   <si>
@@ -284,6 +287,35 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">7$</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">8$</t>
     </r>
   </si>
@@ -382,7 +414,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">BC</t>
+      <t xml:space="preserve">AB</t>
     </r>
     <r>
       <rPr>
@@ -402,7 +434,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">AC</t>
+      <t xml:space="preserve">BC</t>
     </r>
     <r>
       <rPr>
@@ -415,6 +447,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, Ом</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">t, °C </t>
   </si>
   <si>
@@ -532,16 +584,30 @@
     <t xml:space="preserve">$29$</t>
   </si>
   <si>
-    <t xml:space="preserve">$32$</t>
-  </si>
-  <si>
     <t xml:space="preserve">Реализация опыта короткого замыкания</t>
   </si>
   <si>
     <t xml:space="preserve">U КЗ, В</t>
   </si>
   <si>
-    <t xml:space="preserve">Diff</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">U КЗ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">I A, A</t>
@@ -683,6 +749,9 @@
   </si>
   <si>
     <t xml:space="preserve">$58$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$59$</t>
   </si>
   <si>
     <t xml:space="preserve">$60$</t>
@@ -908,7 +977,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1031,6 +1100,10 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1076,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1442,7 +1515,7 @@
       <c r="E13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="17" t="s">
@@ -1453,6 +1526,9 @@
       </c>
       <c r="I13" s="17" t="s">
         <v>23</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1470,31 +1546,34 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1527,7 +1606,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -1552,22 +1631,22 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1587,22 +1666,22 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1622,22 +1701,22 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1657,22 +1736,22 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1719,7 +1798,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1744,22 +1823,25 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1779,22 +1861,25 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -1812,22 +1897,25 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="M25" s="26"/>
       <c r="P25" s="26"/>
@@ -1868,7 +1956,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -1897,26 +1985,26 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
@@ -1925,31 +2013,31 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E29" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="G29" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -1958,40 +2046,40 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M30" s="26"/>
     </row>
@@ -2006,13 +2094,13 @@
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+    <row r="32" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -2023,31 +2111,31 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2079,7 +2167,7 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2105,31 +2193,31 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2146,31 +2234,31 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2214,7 +2302,7 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2243,40 +2331,40 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2293,40 +2381,40 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2370,7 +2458,7 @@
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -2395,19 +2483,19 @@
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J45" s="14"/>
       <c r="N45" s="2"/>
@@ -2425,19 +2513,19 @@
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2477,7 +2565,7 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -2506,19 +2594,19 @@
         <v>15</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2535,22 +2623,22 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2567,22 +2655,22 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2598,54 +2686,54 @@
       <c r="Y51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="31"/>
+      <c r="C52" s="32"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -2661,18 +2749,18 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -2715,24 +2803,24 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="35"/>
+      <c r="A61" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="36"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="L61" s="32" t="s">
+      <c r="K61" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L61" s="33" t="s">
         <v>13</v>
       </c>
       <c r="M61" s="2"/>
@@ -2750,24 +2838,24 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="35"/>
+      <c r="A62" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="36"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="L62" s="32" t="s">
+      <c r="K62" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="33" t="s">
         <v>13</v>
       </c>
       <c r="M62" s="2"/>
